--- a/JAVA_notes/jagroop_pattern.xlsx
+++ b/JAVA_notes/jagroop_pattern.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PatternType1" sheetId="1" r:id="rId1"/>
     <sheet name="Pattern Type-2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="PatternType-3" sheetId="3" r:id="rId3"/>
+    <sheet name="Pattern-4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="60">
   <si>
     <t>*</t>
   </si>
@@ -220,6 +221,48 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>row= 1-&gt;5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col=1, </t>
+  </si>
+  <si>
+    <t>(n+1) -i</t>
+  </si>
+  <si>
+    <t>print j</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>space / time</t>
+  </si>
+  <si>
+    <t>star times</t>
+  </si>
+  <si>
+    <t>5-1=4</t>
+  </si>
+  <si>
+    <t>5-2=3</t>
+  </si>
+  <si>
+    <t>5-3=2</t>
+  </si>
+  <si>
+    <t>5-4=1</t>
+  </si>
+  <si>
+    <t>5-5=0</t>
+  </si>
+  <si>
+    <t>n-row</t>
+  </si>
+  <si>
+    <t>n+1-i</t>
   </si>
 </sst>
 </file>
@@ -258,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +347,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,33 +599,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -590,13 +618,49 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -902,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,23 +977,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="31"/>
+      <c r="H2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="42"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
@@ -1106,28 +1170,28 @@
       <c r="K8" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="35"/>
+      <c r="H14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1293,10 +1357,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="37"/>
+      <c r="I26" s="47"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1440,10 +1504,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L36" s="33"/>
+      <c r="L36" s="40"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H37" s="38" t="s">
@@ -1490,13 +1554,13 @@
       <c r="A39" s="24">
         <v>1</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H39" s="23">
@@ -1517,11 +1581,11 @@
         <v>2</v>
       </c>
       <c r="B40" s="29"/>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="32" t="s">
         <v>0</v>
       </c>
       <c r="F40" s="30"/>
@@ -1544,7 +1608,7 @@
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E41" s="19"/>
@@ -1567,11 +1631,11 @@
         <v>4</v>
       </c>
       <c r="B42" s="29"/>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="21"/>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="33" t="s">
         <v>0</v>
       </c>
       <c r="F42" s="30"/>
@@ -1592,13 +1656,13 @@
       <c r="A43" s="24">
         <v>5</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="33" t="s">
         <v>0</v>
       </c>
       <c r="H43" s="23">
@@ -1615,7 +1679,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I44" s="40"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
@@ -1643,13 +1707,13 @@
       <c r="I47" s="1">
         <v>5</v>
       </c>
-      <c r="K47" s="45" t="s">
+      <c r="K47" s="36" t="s">
         <v>32</v>
       </c>
       <c r="L47" s="5">
         <v>5</v>
       </c>
-      <c r="M47" s="43" t="s">
+      <c r="M47" s="34" t="s">
         <v>27</v>
       </c>
       <c r="N47">
@@ -1663,13 +1727,13 @@
       <c r="I48" s="1">
         <v>4</v>
       </c>
-      <c r="K48" s="45" t="s">
+      <c r="K48" s="36" t="s">
         <v>34</v>
       </c>
       <c r="L48" s="5">
         <v>4</v>
       </c>
-      <c r="M48" s="43" t="s">
+      <c r="M48" s="34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1680,13 +1744,13 @@
       <c r="I49" s="3">
         <v>3</v>
       </c>
-      <c r="K49" s="45" t="s">
+      <c r="K49" s="36" t="s">
         <v>35</v>
       </c>
       <c r="L49" s="5">
         <v>3</v>
       </c>
-      <c r="M49" s="43" t="s">
+      <c r="M49" s="34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1697,13 +1761,13 @@
       <c r="I50" s="1">
         <v>2</v>
       </c>
-      <c r="K50" s="45" t="s">
+      <c r="K50" s="36" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="5">
         <v>2</v>
       </c>
-      <c r="M50" s="43" t="s">
+      <c r="M50" s="34" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1714,13 +1778,13 @@
       <c r="I51" s="1">
         <v>1</v>
       </c>
-      <c r="K51" s="45" t="s">
+      <c r="K51" s="36" t="s">
         <v>37</v>
       </c>
       <c r="L51" s="5">
         <v>1</v>
       </c>
-      <c r="M51" s="44" t="s">
+      <c r="M51" s="35" t="s">
         <v>32</v>
       </c>
       <c r="N51">
@@ -1747,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1863,7 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
@@ -1817,10 +1881,10 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
@@ -1837,13 +1901,13 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="46" t="s">
+      <c r="B6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="1"/>
@@ -1859,16 +1923,16 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="B7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1"/>
@@ -1883,19 +1947,19 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="46" t="s">
+      <c r="B8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="9">
@@ -1929,7 +1993,7 @@
       <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="37">
         <v>1</v>
       </c>
       <c r="C12" s="1"/>
@@ -1941,10 +2005,10 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="46">
-        <v>2</v>
-      </c>
-      <c r="C13" s="46">
+      <c r="B13" s="37">
+        <v>2</v>
+      </c>
+      <c r="C13" s="37">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
@@ -1955,13 +2019,13 @@
       <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="46">
-        <v>3</v>
-      </c>
-      <c r="C14" s="46">
-        <v>3</v>
-      </c>
-      <c r="D14" s="46">
+      <c r="B14" s="37">
+        <v>3</v>
+      </c>
+      <c r="C14" s="37">
+        <v>3</v>
+      </c>
+      <c r="D14" s="37">
         <v>3</v>
       </c>
       <c r="E14" s="1"/>
@@ -1971,16 +2035,16 @@
       <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="46">
-        <v>4</v>
-      </c>
-      <c r="C15" s="46">
-        <v>4</v>
-      </c>
-      <c r="D15" s="46">
-        <v>4</v>
-      </c>
-      <c r="E15" s="46">
+      <c r="B15" s="37">
+        <v>4</v>
+      </c>
+      <c r="C15" s="37">
+        <v>4</v>
+      </c>
+      <c r="D15" s="37">
+        <v>4</v>
+      </c>
+      <c r="E15" s="37">
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
@@ -1989,19 +2053,19 @@
       <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="46">
-        <v>5</v>
-      </c>
-      <c r="C16" s="46">
-        <v>5</v>
-      </c>
-      <c r="D16" s="46">
-        <v>5</v>
-      </c>
-      <c r="E16" s="46">
-        <v>5</v>
-      </c>
-      <c r="F16" s="46">
+      <c r="B16" s="37">
+        <v>5</v>
+      </c>
+      <c r="C16" s="37">
+        <v>5</v>
+      </c>
+      <c r="D16" s="37">
+        <v>5</v>
+      </c>
+      <c r="E16" s="37">
+        <v>5</v>
+      </c>
+      <c r="F16" s="37">
         <v>5</v>
       </c>
     </row>
@@ -2029,7 +2093,7 @@
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="37">
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
@@ -2041,10 +2105,10 @@
       <c r="A21" s="4">
         <v>2</v>
       </c>
-      <c r="B21" s="46">
-        <v>1</v>
-      </c>
-      <c r="C21" s="46">
+      <c r="B21" s="37">
+        <v>1</v>
+      </c>
+      <c r="C21" s="37">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
@@ -2055,13 +2119,13 @@
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="46">
-        <v>1</v>
-      </c>
-      <c r="C22" s="46">
-        <v>2</v>
-      </c>
-      <c r="D22" s="46">
+      <c r="B22" s="37">
+        <v>1</v>
+      </c>
+      <c r="C22" s="37">
+        <v>2</v>
+      </c>
+      <c r="D22" s="37">
         <v>3</v>
       </c>
       <c r="E22" s="1"/>
@@ -2071,16 +2135,16 @@
       <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="46">
-        <v>1</v>
-      </c>
-      <c r="C23" s="46">
-        <v>2</v>
-      </c>
-      <c r="D23" s="46">
-        <v>3</v>
-      </c>
-      <c r="E23" s="46">
+      <c r="B23" s="37">
+        <v>1</v>
+      </c>
+      <c r="C23" s="37">
+        <v>2</v>
+      </c>
+      <c r="D23" s="37">
+        <v>3</v>
+      </c>
+      <c r="E23" s="37">
         <v>4</v>
       </c>
       <c r="F23" s="1"/>
@@ -2089,19 +2153,19 @@
       <c r="A24" s="4">
         <v>5</v>
       </c>
-      <c r="B24" s="46">
-        <v>1</v>
-      </c>
-      <c r="C24" s="46">
-        <v>2</v>
-      </c>
-      <c r="D24" s="46">
-        <v>3</v>
-      </c>
-      <c r="E24" s="46">
-        <v>4</v>
-      </c>
-      <c r="F24" s="46">
+      <c r="B24" s="37">
+        <v>1</v>
+      </c>
+      <c r="C24" s="37">
+        <v>2</v>
+      </c>
+      <c r="D24" s="37">
+        <v>3</v>
+      </c>
+      <c r="E24" s="37">
+        <v>4</v>
+      </c>
+      <c r="F24" s="37">
         <v>5</v>
       </c>
     </row>
@@ -2127,7 +2191,7 @@
       <c r="A28" s="4">
         <v>1</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="37">
         <v>1</v>
       </c>
       <c r="C28" s="1"/>
@@ -2139,10 +2203,10 @@
       <c r="A29" s="4">
         <v>2</v>
       </c>
-      <c r="B29" s="46">
-        <v>2</v>
-      </c>
-      <c r="C29" s="46">
+      <c r="B29" s="37">
+        <v>2</v>
+      </c>
+      <c r="C29" s="37">
         <v>3</v>
       </c>
       <c r="D29" s="1"/>
@@ -2153,13 +2217,13 @@
       <c r="A30" s="4">
         <v>3</v>
       </c>
-      <c r="B30" s="46">
-        <v>4</v>
-      </c>
-      <c r="C30" s="46">
-        <v>5</v>
-      </c>
-      <c r="D30" s="46">
+      <c r="B30" s="37">
+        <v>4</v>
+      </c>
+      <c r="C30" s="37">
+        <v>5</v>
+      </c>
+      <c r="D30" s="37">
         <v>6</v>
       </c>
       <c r="E30" s="1"/>
@@ -2169,28 +2233,28 @@
       <c r="A31" s="4">
         <v>4</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="37">
         <v>7</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="37">
         <v>8</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="37">
         <v>9</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="37">
         <v>10</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -2208,13 +2272,13 @@
       <c r="E34" s="4">
         <v>4</v>
       </c>
-      <c r="G34" s="43"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="37">
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
@@ -2225,10 +2289,10 @@
       <c r="A36" s="4">
         <v>2</v>
       </c>
-      <c r="B36" s="46">
-        <v>1</v>
-      </c>
-      <c r="C36" s="46">
+      <c r="B36" s="37">
+        <v>1</v>
+      </c>
+      <c r="C36" s="37">
         <v>2</v>
       </c>
       <c r="D36" s="1"/>
@@ -2238,13 +2302,13 @@
       <c r="A37" s="4">
         <v>3</v>
       </c>
-      <c r="B37" s="46">
-        <v>1</v>
-      </c>
-      <c r="C37" s="46">
-        <v>2</v>
-      </c>
-      <c r="D37" s="46">
+      <c r="B37" s="37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="37">
         <v>3</v>
       </c>
       <c r="E37" s="1"/>
@@ -2253,16 +2317,16 @@
       <c r="A38" s="4">
         <v>4</v>
       </c>
-      <c r="B38" s="46">
-        <v>1</v>
-      </c>
-      <c r="C38" s="46">
-        <v>2</v>
-      </c>
-      <c r="D38" s="46">
-        <v>3</v>
-      </c>
-      <c r="E38" s="46">
+      <c r="B38" s="37">
+        <v>1</v>
+      </c>
+      <c r="C38" s="37">
+        <v>2</v>
+      </c>
+      <c r="D38" s="37">
+        <v>3</v>
+      </c>
+      <c r="E38" s="37">
         <v>4</v>
       </c>
     </row>
@@ -2287,7 +2351,7 @@
       <c r="A43" s="4">
         <v>1</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="37">
         <v>1</v>
       </c>
       <c r="C43" s="1"/>
@@ -2298,10 +2362,10 @@
       <c r="A44" s="4">
         <v>2</v>
       </c>
-      <c r="B44" s="46">
-        <v>2</v>
-      </c>
-      <c r="C44" s="46">
+      <c r="B44" s="37">
+        <v>2</v>
+      </c>
+      <c r="C44" s="37">
         <v>2</v>
       </c>
       <c r="D44" s="1"/>
@@ -2311,13 +2375,13 @@
       <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" s="46">
-        <v>3</v>
-      </c>
-      <c r="C45" s="46">
-        <v>3</v>
-      </c>
-      <c r="D45" s="46">
+      <c r="B45" s="37">
+        <v>3</v>
+      </c>
+      <c r="C45" s="37">
+        <v>3</v>
+      </c>
+      <c r="D45" s="37">
         <v>3</v>
       </c>
       <c r="E45" s="1"/>
@@ -2326,16 +2390,16 @@
       <c r="A46" s="4">
         <v>4</v>
       </c>
-      <c r="B46" s="46">
-        <v>4</v>
-      </c>
-      <c r="C46" s="46">
-        <v>4</v>
-      </c>
-      <c r="D46" s="46">
-        <v>4</v>
-      </c>
-      <c r="E46" s="46">
+      <c r="B46" s="37">
+        <v>4</v>
+      </c>
+      <c r="C46" s="37">
+        <v>4</v>
+      </c>
+      <c r="D46" s="37">
+        <v>4</v>
+      </c>
+      <c r="E46" s="37">
         <v>4</v>
       </c>
     </row>
@@ -2360,7 +2424,7 @@
       <c r="A50" s="4">
         <v>1</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="1"/>
@@ -2371,10 +2435,10 @@
       <c r="A51" s="4">
         <v>2</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D51" s="1"/>
@@ -2384,13 +2448,13 @@
       <c r="A52" s="4">
         <v>3</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E52" s="1"/>
@@ -2399,16 +2463,16 @@
       <c r="A53" s="4">
         <v>4</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="37" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2423,12 +2487,803 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+    </row>
+    <row r="2" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="9">
+        <v>5</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="37">
+        <v>1</v>
+      </c>
+      <c r="C16" s="37">
+        <v>2</v>
+      </c>
+      <c r="D16" s="37">
+        <v>3</v>
+      </c>
+      <c r="E16" s="37">
+        <v>4</v>
+      </c>
+      <c r="F16" s="37">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37">
+        <v>1</v>
+      </c>
+      <c r="C17" s="37">
+        <v>2</v>
+      </c>
+      <c r="D17" s="37">
+        <v>3</v>
+      </c>
+      <c r="E17" s="37">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="37">
+        <v>1</v>
+      </c>
+      <c r="C18" s="37">
+        <v>2</v>
+      </c>
+      <c r="D18" s="37">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="37">
+        <v>1</v>
+      </c>
+      <c r="C19" s="37">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="37">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="37">
+        <v>5</v>
+      </c>
+      <c r="C27" s="37">
+        <v>5</v>
+      </c>
+      <c r="D27" s="37">
+        <v>5</v>
+      </c>
+      <c r="E27" s="37">
+        <v>5</v>
+      </c>
+      <c r="F27" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="37">
+        <v>4</v>
+      </c>
+      <c r="C28" s="37">
+        <v>4</v>
+      </c>
+      <c r="D28" s="37">
+        <v>4</v>
+      </c>
+      <c r="E28" s="37">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>3</v>
+      </c>
+      <c r="B29" s="37">
+        <v>3</v>
+      </c>
+      <c r="C29" s="37">
+        <v>3</v>
+      </c>
+      <c r="D29" s="37">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>4</v>
+      </c>
+      <c r="B30" s="37">
+        <v>2</v>
+      </c>
+      <c r="C30" s="37">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>5</v>
+      </c>
+      <c r="B31" s="37">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>4</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="37">
+        <v>1</v>
+      </c>
+      <c r="C38" s="37">
+        <v>2</v>
+      </c>
+      <c r="D38" s="37">
+        <v>3</v>
+      </c>
+      <c r="E38" s="37">
+        <v>4</v>
+      </c>
+      <c r="F38" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="37">
+        <v>2</v>
+      </c>
+      <c r="C39" s="37">
+        <v>3</v>
+      </c>
+      <c r="D39" s="37">
+        <v>4</v>
+      </c>
+      <c r="E39" s="37">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>3</v>
+      </c>
+      <c r="B40" s="37">
+        <v>3</v>
+      </c>
+      <c r="C40" s="37">
+        <v>4</v>
+      </c>
+      <c r="D40" s="37">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>4</v>
+      </c>
+      <c r="B41" s="37">
+        <v>4</v>
+      </c>
+      <c r="C41" s="37">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>5</v>
+      </c>
+      <c r="B42" s="37">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="37">
+        <v>1</v>
+      </c>
+      <c r="F14" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
+        <v>2</v>
+      </c>
+      <c r="F15" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="37">
+        <v>1</v>
+      </c>
+      <c r="D16" s="37">
+        <v>2</v>
+      </c>
+      <c r="E16" s="37">
+        <v>3</v>
+      </c>
+      <c r="F16" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17" s="37">
+        <v>1</v>
+      </c>
+      <c r="C17" s="37">
+        <v>2</v>
+      </c>
+      <c r="D17" s="37">
+        <v>3</v>
+      </c>
+      <c r="E17" s="37">
+        <v>4</v>
+      </c>
+      <c r="F17" s="37">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/JAVA_notes/jagroop_pattern.xlsx
+++ b/JAVA_notes/jagroop_pattern.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PatternType1" sheetId="1" r:id="rId1"/>
     <sheet name="Pattern Type-2" sheetId="2" r:id="rId2"/>
     <sheet name="PatternType-3" sheetId="3" r:id="rId3"/>
     <sheet name="Pattern-4" sheetId="4" r:id="rId4"/>
+    <sheet name="Pattern-5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="81">
   <si>
     <t>*</t>
   </si>
@@ -263,6 +264,69 @@
   </si>
   <si>
     <t>n+1-i</t>
+  </si>
+  <si>
+    <t>n=4</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>star/how mnay times loop should be executed</t>
+  </si>
+  <si>
+    <t>1-n</t>
+  </si>
+  <si>
+    <t>1- (n-row)</t>
+  </si>
+  <si>
+    <t>1+0</t>
+  </si>
+  <si>
+    <t>2+1</t>
+  </si>
+  <si>
+    <t>row + num</t>
+  </si>
+  <si>
+    <t>4+3</t>
+  </si>
+  <si>
+    <t>num=0</t>
+  </si>
+  <si>
+    <t>logic1</t>
+  </si>
+  <si>
+    <t>logic2</t>
+  </si>
+  <si>
+    <t>2*1-1 = 1</t>
+  </si>
+  <si>
+    <t>2*2 -1 =3</t>
+  </si>
+  <si>
+    <t>2*3-1 =5</t>
+  </si>
+  <si>
+    <t>2*4-1 =7</t>
+  </si>
+  <si>
+    <t>2*row-1</t>
+  </si>
+  <si>
+    <t>col (star)</t>
+  </si>
+  <si>
+    <t>odd Row NO.</t>
+  </si>
+  <si>
+    <t>Half = (total no of row+1)/2</t>
+  </si>
+  <si>
+    <t>1- row</t>
   </si>
 </sst>
 </file>
@@ -301,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +426,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -505,11 +605,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,6 +729,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,14 +769,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,23 +1162,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="42"/>
+      <c r="H2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="44"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
@@ -1170,28 +1355,28 @@
       <c r="K8" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="B12" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="45"/>
+      <c r="H14" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1357,10 +1542,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="47"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1504,16 +1689,16 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L36" s="40"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H37" s="38" t="s">
+      <c r="H37" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="39"/>
+      <c r="I37" s="41"/>
       <c r="L37" t="s">
         <v>13</v>
       </c>
@@ -1821,17 +2006,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="3" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2248,13 +2433,13 @@
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -2489,7 +2674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2500,19 +2685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2568,7 +2753,7 @@
       <c r="I3" s="9">
         <v>5</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="39" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2595,7 +2780,7 @@
       <c r="I4" s="9">
         <v>4</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2620,7 +2805,7 @@
       <c r="I5" s="9">
         <v>3</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2643,7 +2828,7 @@
       <c r="I6" s="9">
         <v>2</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2664,22 +2849,22 @@
       <c r="I7" s="9">
         <v>1</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="38" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="38" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2996,294 +3181,732 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="1" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53" t="s">
+      <c r="A1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58">
+        <v>1</v>
+      </c>
+      <c r="C2" s="58">
+        <v>2</v>
+      </c>
+      <c r="D2" s="58">
+        <v>3</v>
+      </c>
+      <c r="E2" s="58">
+        <v>4</v>
+      </c>
+      <c r="F2" s="58">
+        <v>5</v>
+      </c>
+      <c r="I2" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="57" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="A3" s="58">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="A4" s="58">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="A5" s="58">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="A6" s="58">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="A7" s="58">
+        <v>5</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="A12" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="58">
+        <v>1</v>
+      </c>
+      <c r="C12" s="58">
+        <v>2</v>
+      </c>
+      <c r="D12" s="58">
+        <v>3</v>
+      </c>
+      <c r="E12" s="58">
+        <v>4</v>
+      </c>
+      <c r="F12" s="58">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="37">
+      <c r="A13" s="58">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="37">
-        <v>1</v>
-      </c>
-      <c r="F14" s="37">
+      <c r="A14" s="58">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="59">
+        <v>1</v>
+      </c>
+      <c r="F14" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="37">
-        <v>1</v>
-      </c>
-      <c r="E15" s="37">
-        <v>2</v>
-      </c>
-      <c r="F15" s="37">
+      <c r="A15" s="58">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="59">
+        <v>1</v>
+      </c>
+      <c r="E15" s="59">
+        <v>2</v>
+      </c>
+      <c r="F15" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="37">
-        <v>1</v>
-      </c>
-      <c r="D16" s="37">
-        <v>2</v>
-      </c>
-      <c r="E16" s="37">
-        <v>3</v>
-      </c>
-      <c r="F16" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>5</v>
-      </c>
-      <c r="B17" s="37">
-        <v>1</v>
-      </c>
-      <c r="C17" s="37">
-        <v>2</v>
-      </c>
-      <c r="D17" s="37">
-        <v>3</v>
-      </c>
-      <c r="E17" s="37">
-        <v>4</v>
-      </c>
-      <c r="F17" s="37">
-        <v>5</v>
-      </c>
+      <c r="A16" s="58">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="59">
+        <v>1</v>
+      </c>
+      <c r="D16" s="59">
+        <v>2</v>
+      </c>
+      <c r="E16" s="59">
+        <v>3</v>
+      </c>
+      <c r="F16" s="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="58">
+        <v>5</v>
+      </c>
+      <c r="B17" s="59">
+        <v>1</v>
+      </c>
+      <c r="C17" s="59">
+        <v>2</v>
+      </c>
+      <c r="D17" s="59">
+        <v>3</v>
+      </c>
+      <c r="E17" s="59">
+        <v>4</v>
+      </c>
+      <c r="F17" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M21" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
+      <c r="J22" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="71"/>
+      <c r="M22" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" s="54"/>
+      <c r="O22" s="72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="58">
+        <v>1</v>
+      </c>
+      <c r="C23" s="58">
+        <v>2</v>
+      </c>
+      <c r="D23" s="58">
+        <v>3</v>
+      </c>
+      <c r="E23" s="58">
+        <v>4</v>
+      </c>
+      <c r="F23" s="58">
+        <v>5</v>
+      </c>
+      <c r="G23" s="58">
+        <v>6</v>
+      </c>
+      <c r="H23" s="58">
+        <v>7</v>
+      </c>
+      <c r="J23" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="58">
+        <v>1</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="J24" s="60">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9">
+        <v>3</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="9">
+        <v>1</v>
+      </c>
+      <c r="O24" s="61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="58">
+        <v>2</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="J25" s="60">
+        <v>2</v>
+      </c>
+      <c r="K25" s="9">
+        <v>2</v>
+      </c>
+      <c r="L25" s="9">
+        <v>3</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="9">
+        <v>3</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="58">
+        <v>3</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="61"/>
+      <c r="J26" s="60">
+        <v>3</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="9">
+        <v>5</v>
+      </c>
+      <c r="O26" s="61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="58">
+        <v>4</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="60">
+        <v>4</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>7</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" s="9">
+        <v>7</v>
+      </c>
+      <c r="O27" s="61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="F1" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58">
+        <v>1</v>
+      </c>
+      <c r="C2" s="58">
+        <v>2</v>
+      </c>
+      <c r="D2" s="58">
+        <v>3</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="58">
+        <v>1</v>
+      </c>
+      <c r="M2" s="58">
+        <v>2</v>
+      </c>
+      <c r="N2" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
+        <v>1</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="F3" s="74">
+        <v>1</v>
+      </c>
+      <c r="G3" s="74">
+        <v>1</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="58">
+        <v>1</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
+        <v>2</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="F4" s="74">
+        <v>2</v>
+      </c>
+      <c r="G4" s="74">
+        <v>2</v>
+      </c>
+      <c r="H4" s="76"/>
+      <c r="K4" s="58">
+        <v>2</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="78"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>3</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="74">
+        <v>3</v>
+      </c>
+      <c r="G5" s="74">
+        <v>3</v>
+      </c>
+      <c r="H5" s="76"/>
+      <c r="K5" s="58">
+        <v>3</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <v>4</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="76"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
+        <v>5</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="76"/>
+    </row>
+    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="53">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>